--- a/ProductBacklogNotifications.xlsx
+++ b/ProductBacklogNotifications.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Courses/~234/234s20a/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colby/Git Repository/Repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BBFCC21-E857-E24D-8520-7A5DB058667C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56AC248-B999-764C-A0A9-A09D93022A65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16760" xr2:uid="{87CF5E5E-6C6C-804E-B509-53A21BF814D5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>ID</t>
   </si>
@@ -40,13 +40,34 @@
   </si>
   <si>
     <t>Product Backlog for Campus Notification System</t>
+  </si>
+  <si>
+    <t>Get Coordinates of Properties</t>
+  </si>
+  <si>
+    <t>Generate Google Maps Locations using Coordinates</t>
+  </si>
+  <si>
+    <t>Grab User's Location</t>
+  </si>
+  <si>
+    <t>Generate Email/e2Campus Templates</t>
+  </si>
+  <si>
+    <t>Generate Static Image Output Link</t>
+  </si>
+  <si>
+    <t>Email Checker</t>
+  </si>
+  <si>
+    <t>Auto-Sign Up Through AMOS (?)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -71,7 +92,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -94,15 +115,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -110,6 +139,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,125 +459,199 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DEED33C-7C1B-1A40-9061-3103A1D11FDD}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="7.33203125" customWidth="1"/>
     <col min="2" max="2" width="72" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="26" customHeight="1">
+      <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" ht="29" customHeight="1"/>
+    <row r="3" spans="1:4" ht="21">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:4" ht="40" customHeight="1">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="40" customHeight="1">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="40" customHeight="1">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="40" customHeight="1">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="40" customHeight="1">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="40" customHeight="1">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="40" customHeight="1">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="40" customHeight="1">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" ht="40" customHeight="1">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" ht="40" customHeight="1">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" ht="40" customHeight="1">
+      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" ht="40" customHeight="1">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" ht="40" customHeight="1">
+      <c r="A16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" ht="40" customHeight="1">
+      <c r="A17" s="1">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" ht="40" customHeight="1">
+      <c r="A18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" ht="40" customHeight="1">
+      <c r="A19" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/ProductBacklogNotifications.xlsx
+++ b/ProductBacklogNotifications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colby/Git Repository/Repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56AC248-B999-764C-A0A9-A09D93022A65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8A6C36-C02C-D240-A86E-B46944EE7690}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16760" xr2:uid="{87CF5E5E-6C6C-804E-B509-53A21BF814D5}"/>
   </bookViews>
@@ -460,7 +460,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -587,7 +587,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="40" customHeight="1">
